--- a/Assignment4/ModelStats.xlsx
+++ b/Assignment4/ModelStats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\M_A_HW_Git\Assignment4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b337ce15d3046a8/Documents/GitHub/M_A_HW_Git/Assignment4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{057ACAA1-FDC3-4B55-B72C-EA7AA138C1E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{BABD29A4-0540-4E55-9B67-9281E2FF25FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F455CCAA-DD2E-425F-BBB8-BF19220F6A59}"/>
   </bookViews>
